--- a/zpi-backend/src/test/resources/test_plik_studenci.xlsx
+++ b/zpi-backend/src/test/resources/test_plik_studenci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0814D5-388F-4562-8D7F-40B1B91A5EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FF3E1B-1A39-4114-854B-1C0B2E47F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
+    <workbookView xWindow="3780" yWindow="2085" windowWidth="21600" windowHeight="11295" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>STU</t>
   </si>
@@ -50,12 +44,6 @@
     <t>3I-IST-000</t>
   </si>
   <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t>Doe</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
     <t>2020/21-Z</t>
   </si>
   <si>
-    <t>2021/22-Z</t>
-  </si>
-  <si>
     <t>2022/23-Z</t>
   </si>
   <si>
@@ -83,12 +68,6 @@
     <t>W04-ISTP-000P-OSIW7</t>
   </si>
   <si>
-    <t>W04-ISTA-000P-OSIW7</t>
-  </si>
-  <si>
-    <t>W04-CBEP-000P-OSIE7</t>
-  </si>
-  <si>
     <t>W04-INAP-000P-OSME3</t>
   </si>
   <si>
@@ -122,22 +101,46 @@
     <t>Jan</t>
   </si>
   <si>
-    <t>STUUUUU</t>
-  </si>
-  <si>
     <t>W04-ISTP-000P-OQEW1</t>
   </si>
   <si>
-    <t>XD</t>
-  </si>
-  <si>
-    <t>XDD</t>
-  </si>
-  <si>
     <t>W04-ISTP-000P-QQQQ1</t>
   </si>
   <si>
     <t>2010/11-Z</t>
+  </si>
+  <si>
+    <t>Brakujące</t>
+  </si>
+  <si>
+    <t>ProgramsCycles</t>
+  </si>
+  <si>
+    <t>STUUUU</t>
+  </si>
+  <si>
+    <t>W04-XDDP-000P-OSIW7</t>
+  </si>
+  <si>
+    <t>Brakujący</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Cykl</t>
+  </si>
+  <si>
+    <t>Zły</t>
+  </si>
+  <si>
+    <t>zły</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>indeks</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC910A35-DBA4-4745-A5B9-408A7516FAA4}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,25 +557,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
@@ -582,50 +585,50 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>234567</v>
+        <v>998090</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>345678</v>
+        <v>998090</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -634,276 +637,166 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>123456</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>998090</v>
-      </c>
-      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A5" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>44835</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44835</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A6" s="7">
+        <v>1234567</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>44835</v>
+      </c>
+      <c r="H6" s="6">
+        <v>44835</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>998090</v>
+        <v>123456</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>999999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>111111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>222222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="4">
-        <v>123456</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>44835</v>
-      </c>
-      <c r="H8" s="6">
-        <v>44835</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A9" s="7">
-        <v>234567</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>44835</v>
-      </c>
-      <c r="H9" s="6">
-        <v>44835</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="4">
-        <v>12345</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6">
-        <v>44835</v>
-      </c>
-      <c r="H10" s="6">
-        <v>44835</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>1234567</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="6">
-        <v>44835</v>
-      </c>
-      <c r="H11" s="6">
-        <v>44835</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="6">
-        <v>44835</v>
-      </c>
-      <c r="H12" s="6">
-        <v>44835</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>123456</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>999999</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/zpi-backend/src/test/resources/test_plik_studenci.xlsx
+++ b/zpi-backend/src/test/resources/test_plik_studenci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FF3E1B-1A39-4114-854B-1C0B2E47F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3263F35-03B5-4028-87FC-186775F6F1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2085" windowWidth="21600" windowHeight="11295" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>STU</t>
   </si>
@@ -44,18 +44,6 @@
     <t>3I-IST-000</t>
   </si>
   <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Ava</t>
-  </si>
-  <si>
-    <t>Chapman</t>
-  </si>
-  <si>
     <t>2020/21-Z</t>
   </si>
   <si>
@@ -95,12 +83,6 @@
     <t>ETAP</t>
   </si>
   <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
     <t>W04-ISTP-000P-OQEW1</t>
   </si>
   <si>
@@ -140,7 +122,28 @@
     <t>status</t>
   </si>
   <si>
-    <t>indeks</t>
+    <t>Indeks</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Złenazwisko</t>
+  </si>
+  <si>
+    <t>Złeimie</t>
+  </si>
+  <si>
+    <t>Będzie</t>
+  </si>
+  <si>
+    <t>Powtórka</t>
+  </si>
+  <si>
+    <t>Zlepi</t>
+  </si>
+  <si>
+    <t>Git</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,12 +178,6 @@
       <name val="Liberation Sans"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,9 +218,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC910A35-DBA4-4745-A5B9-408A7516FAA4}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -557,25 +551,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
@@ -585,16 +579,16 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -605,19 +599,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>998090</v>
+        <v>123456</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -628,126 +622,116 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
+        <v>666666</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>998090</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>998090</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A7" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="4">
-        <v>1234567</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>44835</v>
-      </c>
-      <c r="H5" s="6">
-        <v>44835</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A6" s="7">
-        <v>1234567</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>44835</v>
-      </c>
-      <c r="H6" s="6">
-        <v>44835</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>123456</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>999999</v>
+        <v>123456</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>1</v>
@@ -755,19 +739,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>111111</v>
+        <v>999999</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -778,24 +762,93 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
+        <v>111111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>222222</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>333333</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>444444</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/zpi-backend/src/test/resources/test_plik_studenci.xlsx
+++ b/zpi-backend/src/test/resources/test_plik_studenci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3263F35-03B5-4028-87FC-186775F6F1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0007F1AF-62EE-4AA2-A124-338BA7D93557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>STU</t>
   </si>
@@ -134,16 +134,7 @@
     <t>Złeimie</t>
   </si>
   <si>
-    <t>Będzie</t>
-  </si>
-  <si>
-    <t>Powtórka</t>
-  </si>
-  <si>
     <t>Zlepi</t>
-  </si>
-  <si>
-    <t>Git</t>
   </si>
 </sst>
 </file>
@@ -533,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC910A35-DBA4-4745-A5B9-408A7516FAA4}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,19 +567,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>123456</v>
+        <v>998090</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -599,19 +590,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>123456</v>
+        <v>998090</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -620,47 +611,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>666666</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A4" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>998090</v>
+        <v>123456</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>1</v>
@@ -668,19 +661,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>998090</v>
+        <v>999999</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
@@ -689,49 +682,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>1234567</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>111111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>123456</v>
+        <v>222222</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>1</v>
@@ -739,19 +730,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>999999</v>
+        <v>333333</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -762,16 +753,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>111111</v>
+        <v>444444</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -780,75 +771,6 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>222222</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>333333</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>444444</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
